--- a/ig/majKereval/StructureDefinition-ror-task.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:38:10+00:00</t>
+    <t>2023-04-11T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-task.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:56:12+00:00</t>
+    <t>2023-04-11T09:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-task.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:15:18+00:00</t>
+    <t>2023-04-11T09:20:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-task.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:01+00:00</t>
+    <t>2023-04-11T09:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/majKereval/StructureDefinition-ror-task.xlsx
+++ b/ig/majKereval/StructureDefinition-ror-task.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:20:36+00:00</t>
+    <t>2023-04-11T09:21:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
